--- a/20220502_LIH/인터페이스 구현 시험_문항1.xlsx
+++ b/20220502_LIH/인터페이스 구현 시험_문항1.xlsx
@@ -21,16 +21,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="62">
-  <x:si>
-    <x:t>5. JUnit Test를 통한 Dao를 테스트 할 수 있는지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4. DTO를 필요에 의해서 만들 수 있는지(롬북사용금지)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Map&lt;String, String[]&gt; map
-String[] seq</x:t>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="73">
+  <x:si>
+    <x:t>MemberVo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14) 게시글 전체조회(삭제된 글을 볼수없는 사용자, 삭제된 글볼수있는 관리자 )
+ : TEST LPAD로 작성을 하고 DAO는 그냥 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SELECT ID
+	FROM SPRINGMEMBER s 
+	WHERE NAME ='테스트' AND EMAIL ='test@naver.com';</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UPDATE SPRINGBOARD 
+	SET TITLE = '수정된 제목', CONTENT = '수정 내용'
+		WHERE SEQ = '2';</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+Dynamic Delete
+DELETE FROM SPRINGBOARD s 
+	WHERE SEQ IN
+	&lt;foreach collection="seqs" item="seq" open="(" separator="," close=")"&gt;
+	   #{seq}
+	&lt;/foreach&gt;
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SELECT COUNT(ID)
+	FROM SPRINGMEMBER s 
+		WHERE ID='USER' AND PW = '1234'
+		AND DELFLAG = 'N';</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UPDATE  SPRINGBOARD SET STEP = STEP +1
+WHERE REFER = (SELECT REFER FROM SPRINGBOARD s WHERE SEQ='5')
+AND STEP &gt; (SELECT STEP FROM SPRINGBOARD s2 WHERE SEQ='5')
+INSERT INTO GD.SPRINGBOARD
+(SEQ, ID, TITLE, CONTENT, STEP, "DEPTH", REFER, READCOUNT, DELFLAG, REGDATE)
+VALUES(SPRINGBOARD_SEQ.NEXTVAL, 'ADMIN', '공지사항의 답글', '공지사항 의 답글입니다.'
+		,(SELECT STEP FROM SPRINGBOARD s2 WHERE SEQ='5')+1
+		,(SELECT "DEPTH" FROM SPRINGBOARD s3 WHERE SEQ='5')+1
+		,(SELECT REFER FROM SPRINGBOARD s WHERE SEQ='5')
+		, 0, 'N', SYSDATE)</x:t>
   </x:si>
   <x:si>
     <x:t>INSERT INTO GD.SPRINGMEMBER
@@ -45,24 +80,52 @@
 VALUES('USER', '1234', 'U', 'N', SYSDATE);</x:t>
   </x:si>
   <x:si>
-    <x:t>UPDATE  SPRINGBOARD SET STEP = STEP +1
-WHERE REFER = (SELECT REFER FROM SPRINGBOARD s WHERE SEQ='5')
-AND STEP &gt; (SELECT STEP FROM SPRINGBOARD s2 WHERE SEQ='5')
-INSERT INTO GD.SPRINGBOARD
-(SEQ, ID, TITLE, CONTENT, STEP, "DEPTH", REFER, READCOUNT, DELFLAG, REGDATE)
-VALUES(SPRINGBOARD_SEQ.NEXTVAL, 'ADMIN', '공지사항의 답글', '공지사항 의 답글입니다.'
-		,(SELECT STEP FROM SPRINGBOARD s2 WHERE SEQ='5')+1
-		,(SELECT "DEPTH" FROM SPRINGBOARD s3 WHERE SEQ='5')+1
-		,(SELECT REFER FROM SPRINGBOARD s WHERE SEQ='5')
-		, 0, 'N', SYSDATE)</x:t>
-  </x:si>
-  <x:si>
     <x:t>SELECT SEQ, ID, TITLE, CONTENT, READCOUNT, REGDATE 
 	FROM SPRINGBOARD s 
 		WHERE SEQ = '2';</x:t>
   </x:si>
   <x:si>
-    <x:t>2. 쿼리를 spring framework의 Mybatis 적용할 수 있는지</x:t>
+    <x:t>시험 9시 00분시작 ~ 12:00 종료</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2) 회원전체조회(등록일순 내림차순)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BoardVo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INT
+INT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>string</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작성 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6) 새글쓰기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디찾기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호 변경</x:t>
+  </x:si>
+  <x:si>
+    <x:t>output</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3) 회원가입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>input</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9) 조회수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>String</x:t>
   </x:si>
   <x:si>
     <x:t>UPDATE SPRINGBOARD 
@@ -74,6 +137,45 @@
 (SEQ, ID, TITLE, CONTENT, STEP, "DEPTH", REFER, READCOUNT, DELFLAG, REGDATE)
 VALUES(SPRINGBOARD_SEQ.NEXTVAL, 'ADMIN', '스프링 새글 입니다.', '스프링 새글 내용입니다.', 0, 0, 
 		(SELECT NVL(MAX(REFER),0) FROM SPRINGBOARD s)+1, 0, 'N', SYSDATE);</x:t>
+  </x:si>
+  <x:si>
+    <x:t>&lt;!-- id로그인 --&gt;
+&lt;select id="enLogin" parameterType="java.lang.String" resultType="MemberVo"&gt;
+	SELECT ID, AUTH,REGDATE FROM SPRINGMEMBER WHERE ID = #{id}
+&lt;/select&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>&lt;!-- 관리자 페이징 처리 --&gt;
+&lt;select id="adminBoardListRow" parameterType="RowNumVo" resultType="BoardVo"&gt;
+	SELECT SEQ, ID, TITLE, REFER, CONTENT, STEP , "DEPTH" , DELFLAG , READCOUNT ,REGDATE 
+	FROM (
+		SELECT ROW_NUMBER() OVER(ORDER BY REFER DESC, STEP) RM,SEQ, ID, TITLE, CONTENT, REFER, STEP , "DEPTH" , DELFLAG , READCOUNT ,REGDATE
+		FROM SPRINGBOARD s 
+	)
+	WHERE RM BETWEEN #{start} AND #{last}
+&lt;/select&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>&lt;select id="userBoardListTotal" resultType="java.lang.Integer"&gt;
+	SELECT COUNT(*) FROM SPRINGBOARD s
+	WHERE DELFLAG = 'N'
+&lt;/select&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>&lt;select id="adminBoardListTotal" resultType="java.lang.Integer"&gt;
+	SELECT COUNT(*) FROM SPRINGBOARD s
+&lt;/select&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SELECT ID, AUTH, DELFLAG , REFDATE 
+	FROM SPRINGMEMBER s 
+		ORDER BY REFDATE DESC;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>&lt;!-- 비밀번호 확인 --&gt;
+&lt;select id="passwordCheck" parameterType="java.lang.String" resultType="java.lang.String"&gt;
+	SELECT PW FROM SPRINGMEMBER WHERE ID = #{id}
+&lt;/select&gt;</x:t>
   </x:si>
   <x:si>
     <x:t>** 화면구현하지 마세요
@@ -83,109 +185,39 @@
    Filter(인코딩, 로그 ) 하세요.</x:t>
   </x:si>
   <x:si>
-    <x:t>UPDATE SPRINGBOARD 
-	SET TITLE = '수정된 제목', CONTENT = '수정 내용'
-		WHERE SEQ = '2';</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14) 게시글 전체조회(삭제된 글을 볼수없는 사용자, 삭제된 글볼수있는 관리자 )
- : TEST LPAD로 작성을 하고 DAO는 그냥 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SELECT ID
-	FROM SPRINGMEMBER s 
-	WHERE NAME ='테스트' AND EMAIL ='test@naver.com';</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7) 답글(업데이트, 답글입력)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Map&lt;String, Object&gt;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7. 이클립스 새로 셋팅하고 시작</x:t>
-  </x:si>
-  <x:si>
-    <x:t>INT
-INT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>output</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작성 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6) 새글쓰기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>input</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3) 회원가입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디찾기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호 변경</x:t>
-  </x:si>
-  <x:si>
-    <x:t>String</x:t>
-  </x:si>
-  <x:si>
-    <x:t>string</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9) 조회수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BoardVo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SELECT ID, AUTH, DELFLAG , REFDATE 
-	FROM SPRINGMEMBER s 
-		ORDER BY REFDATE DESC;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SELECT COUNT(*) FROM SPRINGMEMBER s
-WHERE ID='test' AND NAME='테스트' AND EMAIL='test@naver.com';
-UPDATE SPRINGMEMBER SET PW='1234' WHERE ID='test';</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">
-Dynamic Delete
-DELETE FROM SPRINGBOARD s 
-	WHERE SEQ IN
-	&lt;foreach collection="seqs" item="seq" open="(" separator="," close=")"&gt;
-	   #{seq}
-	&lt;/foreach&gt;
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15) 게시글 페이징 (쿼리만들어 적용) + 전체글 조회(사용자와 관리자로 나뉨)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SELECT PW 
-	FROM SPRINGMEMBER s 
-		WHERE ID = 'USER';</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SELECT COUNT(ID)
-	FROM SPRINGMEMBER s 
-		WHERE ID='USER' AND PW = '1234'
-		AND DELFLAG = 'N';</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SELECT SEQ, ID, TITLE, STEP, "DEPTH" , REFER, READCOUNT, DELFLAG, REGDATE
-	FROM SPRINGBOARD s
-	WHERE REFER = (SELECT REFER FROM SPRINGBOARD WHERE SEQ='2')
-	ORDER BY REFER DESC, STEP;</x:t>
-  </x:si>
-  <x:si>
     <x:t>INSERT INTO GD.SPRINGMEMBER
 (ID, PW, NAME, EMAIL, AUTH, DELFLAG, REGDATE)
 VALUES('ADMIN', '1234','홍길동','ABCD@naver.com' 'A', 'N', SYSDATE);</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Map&lt;String, String[]&gt; map
+String[] seq</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2. 쿼리를 spring framework의 Mybatis 적용할 수 있는지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5. JUnit Test를 통한 Dao를 테스트 할 수 있는지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4. DTO를 필요에 의해서 만들 수 있는지(롬북사용금지)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11) 글삭제(삭제여부 변경, 다중삭제, [], DYNAMIC)</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+&lt;!-- 사용자 페이징 처리 --&gt;
+&lt;select id="userBoardListRow" parameterType="RowNumVo" resultType="BoardVo"&gt;
+	SELECT SEQ, ID, TITLE, REFER, CONTENT, STEP , "DEPTH" , DELFLAG , READCOUNT ,REGDATE 
+	FROM (
+		SELECT ROW_NUMBER() OVER(ORDER BY REFER DESC, STEP) RM,SEQ, ID, CONTENT, TITLE, REFER, STEP , "DEPTH" , DELFLAG , READCOUNT ,REGDATE
+		FROM SPRINGBOARD s 
+		WHERE DELFLAG = 'N'
+	)
+	WHERE RM BETWEEN #{start} AND #{last}
+&lt;/select&gt;
+</x:t>
   </x:si>
   <x:si>
     <x:t>LPAD 
@@ -198,52 +230,27 @@
 		ORDER BY REFER DESC, STEP;</x:t>
   </x:si>
   <x:si>
-    <x:t>1. 쿼리테스트를 위한 데이터를 생성 할 수 있는지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5) 비밀번호 확인(아이디입력받아서 비밀번호 확인)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3. View의 요청에 따른 쿼리 바인딩을 할 수 있는지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>map</x:t>
-  </x:si>
-  <x:si>
-    <x:t>int</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결과</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쿼리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DTO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11) 글삭제(삭제여부 변경, 다중삭제, [], DYNAMIC)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Parameter</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Arguments</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8) 상세글 보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12) 글삭제(DB삭제, 방법은 위와 동일)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4) 로그인(아이디, 비밀번호, 사용여부N)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6. 인터페이스를 구현하여 테스트가 가능한지.</x:t>
+    <x:t>SELECT SEQ, ID, TITLE, STEP, "DEPTH" , REFER, READCOUNT, DELFLAG, REGDATE
+	FROM SPRINGBOARD s
+	WHERE REFER = (SELECT REFER FROM SPRINGBOARD WHERE SEQ='2')
+	ORDER BY REFER DESC, STEP;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7) 답글(업데이트, 답글입력)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Map&lt;String, Object&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7. 이클립스 새로 셋팅하고 시작</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SELECT COUNT(*) FROM SPRINGMEMBER s
+WHERE ID='test' AND NAME='테스트' AND EMAIL='test@naver.com';
+UPDATE SPRINGMEMBER SET PW='1234' WHERE ID='test';</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">id로그인 </x:t>
   </x:si>
   <x:si>
     <x:t>CREATE TABLE SPRINGMEMBER(
@@ -272,29 +279,84 @@
 CREATE SEQUENCE SPRINGBOARD_SEQ START WITH 1 INCREMENT BY 1;</x:t>
   </x:si>
   <x:si>
-    <x:t>10) 글수정(제목, 내용)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1) 샘플 데이터 입력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>List&lt;MemberVo&gt;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>List&lt;BoardVo&gt;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13) 하위 삭제 대상 찾기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시험 9시 00분시작 ~ 12:00 종료</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2) 회원전체조회(등록일순 내림차순)</x:t>
+    <x:t>map</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결과</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쿼리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DTO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>int</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8) 상세글 보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Arguments</x:t>
   </x:si>
   <x:si>
     <x:t>MAP
 String</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Parameter</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 쿼리테스트를 위한 데이터를 생성 할 수 있는지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5) 비밀번호 확인(아이디입력받아서 비밀번호 확인)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3. View의 요청에 따른 쿼리 바인딩을 할 수 있는지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1) 샘플 데이터 입력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10) 글수정(제목, 내용)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13) 하위 삭제 대상 찾기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>List&lt;BoardVo&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>List&lt;MemberVo&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4) 로그인(아이디, 비밀번호, 사용여부N)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12) 글삭제(DB삭제, 방법은 위와 동일)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6. 인터페이스를 구현하여 테스트가 가능한지.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리자 글 갯수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리자 글 리스트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자 글 리스트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자 글 개수</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">RowNumVo
+</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1466,7 +1528,7 @@
   <x:sheetData>
     <x:row r="2" spans="2:2" ht="318" customHeight="1">
       <x:c r="B2" s="4" t="s">
-        <x:v>53</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="3" ht="252" customHeight="1"/>
@@ -1479,10 +1541,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet2"/>
-  <x:dimension ref="A1:H19"/>
+  <x:dimension ref="A1:H23"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="H20" activeCellId="0" sqref="H20:H20"/>
+    <x:sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="G21" activeCellId="0" sqref="G21:G21"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
@@ -1498,26 +1560,26 @@
   <x:sheetData>
     <x:row r="1" spans="1:8" ht="17.149999999999999">
       <x:c r="A1" s="14" t="s">
-        <x:v>18</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B1" s="16" t="s">
-        <x:v>43</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C1" s="12" t="s">
-        <x:v>44</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D1" s="18" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="E1" s="16" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F1" s="20" t="s">
-        <x:v>45</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G1" s="21"/>
       <x:c r="H1" s="10" t="s">
-        <x:v>42</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:8" ht="17.149999999999999">
@@ -1527,227 +1589,284 @@
       <x:c r="D2" s="19"/>
       <x:c r="E2" s="17"/>
       <x:c r="F2" s="7" t="s">
-        <x:v>48</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="G2" s="9" t="s">
-        <x:v>47</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H2" s="11"/>
     </x:row>
     <x:row r="3" spans="1:8" ht="245.55000000000001">
       <x:c r="A3" s="5" t="s">
-        <x:v>55</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C3" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H3" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8" ht="49.149999999999999">
       <x:c r="A4" s="6" t="s">
-        <x:v>60</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C4" s="3" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H4" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8" ht="65.5">
       <x:c r="A5" s="6" t="s">
-        <x:v>21</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
-        <x:v>35</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G5" s="3" t="s">
-        <x:v>14</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="H5" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8" ht="65.5">
       <x:c r="A6" s="6" t="s">
-        <x:v>51</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s">
-        <x:v>33</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G6" s="3" t="s">
-        <x:v>14</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="H6" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:8" customFormat="1" ht="81.849999999999994">
+      <x:c r="A7" s="5" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C7" s="3" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="G7" s="3" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H7" t="s">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:8" ht="98.25">
+      <x:c r="A8" s="6" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C8" s="3" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G8" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H8" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:8" ht="114.59999999999999">
+      <x:c r="A9" s="6" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C9" s="3" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G9" s="3" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="H9" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:8" ht="294.69999999999999">
+      <x:c r="A10" s="6" t="s">
         <x:v>41</x:v>
       </x:c>
-    </x:row>
-    <x:row r="7" spans="1:8" ht="49.149999999999999">
-      <x:c r="A7" s="6" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="C7" s="3" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="G7" s="2" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="H7" s="2" t="s">
-        <x:v>24</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:8" ht="114.59999999999999">
-      <x:c r="A8" s="6" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="C8" s="3" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="G8" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H8" s="2" t="s">
-        <x:v>41</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:8" ht="294.69999999999999">
-      <x:c r="A9" s="6" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C9" s="3" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="G9" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H9" s="2" t="s">
-        <x:v>41</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:8" ht="49.149999999999999">
-      <x:c r="A10" s="6" t="s">
-        <x:v>49</x:v>
-      </x:c>
       <x:c r="C10" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G10" s="3" t="s">
-        <x:v>14</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="H10" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:8" ht="49.149999999999999">
       <x:c r="A11" s="6" t="s">
-        <x:v>26</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C11" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G11" s="3" t="s">
-        <x:v>14</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="H11" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:8" ht="49.149999999999999">
       <x:c r="A12" s="6" t="s">
-        <x:v>54</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C12" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G12" s="3" t="s">
-        <x:v>14</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="H12" s="2" t="s">
-        <x:v>41</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:8" ht="180.09999999999999">
+        <x:v>52</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:8" ht="49.149999999999999">
       <x:c r="A13" s="6" t="s">
-        <x:v>46</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C13" s="3" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="D13" s="3"/>
+        <x:v>3</x:v>
+      </x:c>
       <x:c r="G13" s="3" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="H13" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:8" ht="180.09999999999999">
+      <x:c r="A14" s="6" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C14" s="3" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D14" s="3"/>
+      <x:c r="G14" s="3" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="H14" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:7">
+      <x:c r="A15" s="6" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="C15" s="3"/>
+      <x:c r="G15" s="3"/>
+    </x:row>
+    <x:row r="16" spans="1:8" ht="98.25">
+      <x:c r="A16" s="6" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C16" s="3" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="G16" s="3" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="H16" s="1" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:8" ht="163.69999999999999">
+      <x:c r="A17" s="8" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C17" s="3" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="H17" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:8" customFormat="1" ht="65.5">
+      <x:c r="A18" s="8" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C18" s="3" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="H18" t="s">
+        <x:v>52</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:8" customFormat="1" ht="212.84999999999999">
+      <x:c r="A19" s="8" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C19" s="3" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="G19" s="3" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="H19" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:8" customFormat="1" ht="81.849999999999994">
+      <x:c r="A20" s="8" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C20" s="3" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="H20" t="s">
+        <x:v>52</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:8" ht="311.05000000000001">
+      <x:c r="A21" s="6" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C21" s="3" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G21" s="3" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="H21" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:8" ht="65.5">
+      <x:c r="A22" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C22" s="3" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="H13" s="2" t="s">
-        <x:v>41</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:7">
-      <x:c r="A14" s="6" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="C14" s="3"/>
-      <x:c r="G14" s="3"/>
-    </x:row>
-    <x:row r="15" spans="1:8" ht="98.25">
-      <x:c r="A15" s="6" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="C15" s="3" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="G15" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H15" s="1" t="s">
-        <x:v>57</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:8" ht="163.69999999999999">
-      <x:c r="A16" s="8" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C16" s="3" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="H16" s="2" t="s">
-        <x:v>57</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:8">
-      <x:c r="A17" s="6" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="C17" s="3"/>
-      <x:c r="H17" s="3"/>
-    </x:row>
-    <x:row r="18" spans="1:8" ht="65.5">
-      <x:c r="A18" s="2" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C18" s="3" t="s">
+      <x:c r="G22" s="2" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="H22" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:8" ht="81.849999999999994">
+      <x:c r="A23" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C23" s="3" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="G23" s="3" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="H23" s="3" t="s">
         <x:v>12</x:v>
-      </x:c>
-      <x:c r="G18" s="2" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="H18" s="2" t="s">
-        <x:v>25</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:8" ht="81.849999999999994">
-      <x:c r="A19" s="2" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="C19" s="3" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="G19" s="3" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="H19" s="3" t="s">
-        <x:v>16</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1781,47 +1900,47 @@
   <x:sheetData>
     <x:row r="2" spans="1:1">
       <x:c r="A2" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1">
       <x:c r="A3" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1">
       <x:c r="A4" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1">
       <x:c r="A5" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1">
       <x:c r="A6" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1">
       <x:c r="A7" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:1" ht="81.849999999999994">
       <x:c r="A8" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:1">
       <x:c r="A9" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:1">
       <x:c r="A10" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
